--- a/dev_projects/centrifugal_compressor/validation_cases/Eckardt/eckardt_impeller_O/eckardt_impeller_O.xlsx
+++ b/dev_projects/centrifugal_compressor/validation_cases/Eckardt/eckardt_impeller_O/eckardt_impeller_O.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/lasse_anderson_sintef_no/Documents/Python scripts/turboflow/dev_projects/centrifugal_compressor/validation_cases/Eckardt/eckardt_impeller_O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{4F24DD3B-B375-4E0E-B5E7-823E174D1295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B30DDC-CA9C-4804-ABA8-DC68BE35BAEC}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{4F24DD3B-B375-4E0E-B5E7-823E174D1295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5587426-EADC-4BC2-8B3E-1341E9F2BADC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{0BACD2F8-7B2E-48A9-8B72-52AA9319C627}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{0BACD2F8-7B2E-48A9-8B72-52AA9319C627}"/>
   </bookViews>
   <sheets>
     <sheet name="pr_tt" sheetId="1" r:id="rId1"/>
@@ -194,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ADE019-5AC4-42D9-A5BC-D2F2F0042CD9}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -966,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E00E8E-899A-4DDC-8109-91046E6A9D4B}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
